--- a/Hardware/Pinout.xlsx
+++ b/Hardware/Pinout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Work\CatFeeder\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47753993-D6EC-45CF-967D-3C5FB106C8AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D15A5B-9720-4F0D-8C37-C307E478C4C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62700" yWindow="1290" windowWidth="15990" windowHeight="15465" xr2:uid="{A5F12A34-0F1C-4400-BE1A-C9AAAF09D9EB}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A5F12A34-0F1C-4400-BE1A-C9AAAF09D9EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>L293D</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>LED-</t>
+  </si>
+  <si>
+    <t>LED+</t>
   </si>
 </sst>
 </file>
@@ -563,7 +569,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -662,6 +668,9 @@
       <c r="K4" s="4">
         <v>6</v>
       </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -684,6 +693,9 @@
       </c>
       <c r="K5">
         <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
       </c>
       <c r="M5" t="s">
         <v>12</v>

--- a/Hardware/Pinout.xlsx
+++ b/Hardware/Pinout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Work\CatFeeder\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D15A5B-9720-4F0D-8C37-C307E478C4C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1E82F0-288D-4D72-B48E-9C193771C4EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A5F12A34-0F1C-4400-BE1A-C9AAAF09D9EB}"/>
   </bookViews>
@@ -569,7 +569,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -592,7 +592,7 @@
       <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="13" t="s">
@@ -624,7 +624,7 @@
       <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="14" t="s">

--- a/Hardware/Pinout.xlsx
+++ b/Hardware/Pinout.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Work\CatFeeder\Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\PROG\CatFeeder\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1E82F0-288D-4D72-B48E-9C193771C4EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F330E3D3-7002-4C75-82BA-B1368DDF464F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A5F12A34-0F1C-4400-BE1A-C9AAAF09D9EB}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{A5F12A34-0F1C-4400-BE1A-C9AAAF09D9EB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="v1.0" sheetId="1" r:id="rId1"/>
+    <sheet name="v2.0" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="33">
   <si>
     <t>L293D</t>
   </si>
@@ -121,6 +122,9 @@
   </si>
   <si>
     <t>LED+</t>
+  </si>
+  <si>
+    <t>Wires</t>
   </si>
 </sst>
 </file>
@@ -216,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -224,11 +228,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -246,6 +367,35 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,13 +718,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27C5117-CD56-4A7C-9AEA-BEFB9801EE6E}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -617,7 +767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -646,7 +796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -672,7 +822,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -701,7 +851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -722,7 +872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
@@ -742,7 +892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -759,7 +909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
@@ -773,7 +923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="J10">
         <v>17</v>
       </c>
@@ -781,7 +931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="J11">
         <v>19</v>
       </c>
@@ -789,7 +939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -800,7 +950,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E13" t="s">
         <v>29</v>
       </c>
@@ -811,7 +961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -825,7 +975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -839,7 +989,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -853,7 +1003,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -867,7 +1017,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -881,7 +1031,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="9" t="s">
         <v>7</v>
       </c>
@@ -895,7 +1045,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
         <v>29</v>
       </c>
@@ -906,7 +1056,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="J21" s="4">
         <v>39</v>
       </c>
@@ -914,7 +1064,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
@@ -935,4 +1085,358 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E402AC20-2F81-4D2C-8C15-6B2B38131CCE}">
+  <dimension ref="B1:N22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="34"/>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="18">
+        <v>1</v>
+      </c>
+      <c r="L3" s="39">
+        <v>2</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="18">
+        <v>3</v>
+      </c>
+      <c r="L4" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="18">
+        <v>5</v>
+      </c>
+      <c r="L5" s="36">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="18">
+        <v>7</v>
+      </c>
+      <c r="L6" s="20">
+        <v>8</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="J7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="37">
+        <v>9</v>
+      </c>
+      <c r="L7" s="20">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="18">
+        <v>11</v>
+      </c>
+      <c r="L8" s="20">
+        <v>12</v>
+      </c>
+      <c r="N8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="H9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="18">
+        <v>13</v>
+      </c>
+      <c r="L9" s="36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="K10" s="18">
+        <v>15</v>
+      </c>
+      <c r="L10" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="K11" s="18">
+        <v>17</v>
+      </c>
+      <c r="L11" s="20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="18">
+        <v>19</v>
+      </c>
+      <c r="L12" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K13" s="18">
+        <v>21</v>
+      </c>
+      <c r="L13" s="20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="18">
+        <v>23</v>
+      </c>
+      <c r="L14" s="20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="K15" s="37">
+        <v>25</v>
+      </c>
+      <c r="L15" s="20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="K16" s="18">
+        <v>27</v>
+      </c>
+      <c r="L16" s="20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K17" s="18">
+        <v>29</v>
+      </c>
+      <c r="L17" s="36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K18" s="18">
+        <v>31</v>
+      </c>
+      <c r="L18" s="20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K19" s="18">
+        <v>33</v>
+      </c>
+      <c r="L19" s="36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K20" s="18">
+        <v>35</v>
+      </c>
+      <c r="L20" s="20">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K21" s="18">
+        <v>37</v>
+      </c>
+      <c r="L21" s="20">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="11:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K22" s="38">
+        <v>39</v>
+      </c>
+      <c r="L22" s="29">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>